--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>608452.9674093914</v>
+        <v>621877.8294317831</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16799231.59170662</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3559241.608843294</v>
+        <v>2228144.448830836</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6542085.068649929</v>
+        <v>7096046.23848744</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>283.4674898434101</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>112.1780559729595</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -725,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +819,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>39.59754480244088</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -880,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>131.5141848153391</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>178.2150998315224</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>129.7400693329387</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1060,19 +1062,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>141.0670894717354</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.139541480023263</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>366.4728813321512</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>68.84221323314274</v>
       </c>
     </row>
     <row r="9">
@@ -1306,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225735</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>67.42894579208335</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>105.9101069513631</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1385,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>12.64021297389359</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>34.71811217257896</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1607,19 +1609,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>357.7365669310939</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>234.5108280225481</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1774,10 +1776,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>14.14416275345401</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022771</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2011,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2093,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>3.139541480023854</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2292,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>140.4342819615944</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>131.3131589043794</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>64.90507698037602</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2494,7 +2496,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2959,13 +2961,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>60.78001549303652</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3238,10 +3240,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>131.9969996527475</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3250,10 +3252,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>81.01098805494593</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3283,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3433,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3673,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430585</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3752,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>93.77676262085224</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>23.62973133531088</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3898,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888117</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>24.34318456170507</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>23.21710985617951</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>111.0877679785123</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4138,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>67.65667327773772</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4195,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>745.2726796662719</v>
+        <v>1057.146387870691</v>
       </c>
       <c r="C2" t="n">
-        <v>745.2726796662719</v>
+        <v>1057.146387870691</v>
       </c>
       <c r="D2" t="n">
-        <v>745.2726796662719</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="E2" t="n">
-        <v>745.2726796662719</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
-        <v>745.2726796662719</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>343.8748482895357</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1344.116250983141</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>1344.116250983141</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>1344.116250983141</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2517.167459510636</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2403.856291861182</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2403.856291861182</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W2" t="n">
-        <v>1999.000837272215</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X2" t="n">
-        <v>1579.858373851526</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y2" t="n">
-        <v>1171.57225015118</v>
+        <v>1483.445958355599</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>54.74469373275195</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K3" t="n">
-        <v>732.2102786755574</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L3" t="n">
-        <v>732.2102786755574</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="M3" t="n">
-        <v>732.2102786755574</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="N3" t="n">
-        <v>732.2102786755574</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="O3" t="n">
-        <v>732.2102786755574</v>
+        <v>1699.639650578398</v>
       </c>
       <c r="P3" t="n">
-        <v>1177.245516579485</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q3" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.8207098557364</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>742.8207098557364</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>576.9427170572591</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>576.9427170572591</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>400.2356630190153</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>234.644388044843</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>94.74221373521749</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2649.986482340924</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2490.74511363892</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2244.865667217376</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
-        <v>1966.432666470481</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V4" t="n">
-        <v>1679.477158340911</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W4" t="n">
-        <v>1407.450753927203</v>
+        <v>1684.540277469974</v>
       </c>
       <c r="X4" t="n">
-        <v>1162.058999260615</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>934.6393285747235</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>663.0441650514773</v>
+        <v>2066.446618057014</v>
       </c>
       <c r="C5" t="n">
-        <v>663.0441650514773</v>
+        <v>2066.446618057014</v>
       </c>
       <c r="D5" t="n">
-        <v>663.0441650514773</v>
+        <v>1630.536833231458</v>
       </c>
       <c r="E5" t="n">
-        <v>663.0441650514773</v>
+        <v>1196.762088389753</v>
       </c>
       <c r="F5" t="n">
-        <v>235.1767354606851</v>
+        <v>768.8946587989612</v>
       </c>
       <c r="G5" t="n">
-        <v>235.1767354606851</v>
+        <v>367.4968274222251</v>
       </c>
       <c r="H5" t="n">
-        <v>55.16148310561195</v>
+        <v>78.3666728654414</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J5" t="n">
-        <v>489.9993811856698</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K5" t="n">
-        <v>1167.464966128475</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L5" t="n">
-        <v>1344.116250983141</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="M5" t="n">
-        <v>1344.116250983141</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="N5" t="n">
-        <v>1344.116250983141</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O5" t="n">
-        <v>1344.116250983141</v>
+        <v>2353.531449084022</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>3181.841323917419</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>3728.340109876014</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>3813.842300812908</v>
       </c>
       <c r="T5" t="n">
-        <v>2517.167459510636</v>
+        <v>3682.791725729131</v>
       </c>
       <c r="U5" t="n">
-        <v>2257.945156827654</v>
+        <v>3682.791725729131</v>
       </c>
       <c r="V5" t="n">
-        <v>1895.32820676148</v>
+        <v>3320.174775662957</v>
       </c>
       <c r="W5" t="n">
-        <v>1490.472752172513</v>
+        <v>3320.174775662957</v>
       </c>
       <c r="X5" t="n">
-        <v>1071.330288751824</v>
+        <v>2901.032312242268</v>
       </c>
       <c r="Y5" t="n">
-        <v>663.0441650514773</v>
+        <v>2492.746188541922</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>2740.426158141555</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>2633.969696978197</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>2538.87940812475</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>2444.758993451704</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>2361.375155067866</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>2275.99006533405</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>2234.254413150262</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>2260.31808631072</v>
       </c>
       <c r="J6" t="n">
-        <v>54.74469373275195</v>
+        <v>2584.876411276932</v>
       </c>
       <c r="K6" t="n">
-        <v>54.74469373275195</v>
+        <v>3239.582457902655</v>
       </c>
       <c r="L6" t="n">
-        <v>54.74469373275195</v>
+        <v>3239.582457902655</v>
       </c>
       <c r="M6" t="n">
-        <v>732.2102786755574</v>
+        <v>3239.582457902655</v>
       </c>
       <c r="N6" t="n">
-        <v>1409.675863618363</v>
+        <v>3239.582457902655</v>
       </c>
       <c r="O6" t="n">
-        <v>1717.984455211561</v>
+        <v>3239.582457902655</v>
       </c>
       <c r="P6" t="n">
-        <v>1717.984455211561</v>
+        <v>3239.582457902655</v>
       </c>
       <c r="Q6" t="n">
-        <v>1717.984455211561</v>
+        <v>3780.321396534731</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>3834.038737077454</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>3703.860093408055</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>3527.523546408024</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>3328.406028470023</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>3143.083274203217</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>2988.215838442097</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>2861.730059221318</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>742.8207098557364</v>
+        <v>787.4437209101934</v>
       </c>
       <c r="C7" t="n">
-        <v>570.2589983389613</v>
+        <v>614.8820093934183</v>
       </c>
       <c r="D7" t="n">
-        <v>404.381005540484</v>
+        <v>449.004016594941</v>
       </c>
       <c r="E7" t="n">
-        <v>234.6230017912213</v>
+        <v>306.5120070275316</v>
       </c>
       <c r="F7" t="n">
-        <v>57.91594775297747</v>
+        <v>306.5120070275316</v>
       </c>
       <c r="G7" t="n">
-        <v>54.74469373275195</v>
+        <v>306.5120070275316</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>166.6098327179061</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R7" t="n">
-        <v>2649.986482340924</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S7" t="n">
-        <v>2490.74511363892</v>
+        <v>2535.368124693377</v>
       </c>
       <c r="T7" t="n">
-        <v>2244.865667217376</v>
+        <v>2289.488678271833</v>
       </c>
       <c r="U7" t="n">
-        <v>1966.432666470481</v>
+        <v>2011.055677524938</v>
       </c>
       <c r="V7" t="n">
-        <v>1679.477158340911</v>
+        <v>1724.100169395368</v>
       </c>
       <c r="W7" t="n">
-        <v>1407.450753927203</v>
+        <v>1452.07376498166</v>
       </c>
       <c r="X7" t="n">
-        <v>1162.058999260615</v>
+        <v>1206.682010315072</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.6393285747235</v>
+        <v>979.2623396291806</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1142.333694861421</v>
+        <v>2215.042146943947</v>
       </c>
       <c r="C8" t="n">
-        <v>1142.333694861421</v>
+        <v>1776.89967412737</v>
       </c>
       <c r="D8" t="n">
-        <v>1142.333694861421</v>
+        <v>1340.989889301815</v>
       </c>
       <c r="E8" t="n">
-        <v>1142.333694861421</v>
+        <v>907.2151444601097</v>
       </c>
       <c r="F8" t="n">
-        <v>714.4662652706293</v>
+        <v>479.3477148693175</v>
       </c>
       <c r="G8" t="n">
-        <v>344.2916376623957</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="H8" t="n">
-        <v>55.16148310561195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="K8" t="n">
-        <v>1167.464966128475</v>
+        <v>287.9518992553345</v>
       </c>
       <c r="L8" t="n">
-        <v>1167.464966128475</v>
+        <v>1252.581707476029</v>
       </c>
       <c r="M8" t="n">
-        <v>1167.464966128475</v>
+        <v>1252.581707476029</v>
       </c>
       <c r="N8" t="n">
-        <v>1167.464966128475</v>
+        <v>2217.211515696724</v>
       </c>
       <c r="O8" t="n">
-        <v>1844.930551071281</v>
+        <v>3181.841323917419</v>
       </c>
       <c r="P8" t="n">
-        <v>2190.735900679003</v>
+        <v>3181.841323917419</v>
       </c>
       <c r="Q8" t="n">
-        <v>2737.234686637598</v>
+        <v>3728.340109876014</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="V8" t="n">
-        <v>2374.617736571424</v>
+        <v>3534.877224562897</v>
       </c>
       <c r="W8" t="n">
-        <v>1969.762281982458</v>
+        <v>3130.021769973931</v>
       </c>
       <c r="X8" t="n">
-        <v>1550.619818561768</v>
+        <v>2710.879306553241</v>
       </c>
       <c r="Y8" t="n">
-        <v>1142.333694861421</v>
+        <v>2641.341717428855</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>119.6855356763689</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I9" t="n">
-        <v>80.80836689320955</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J9" t="n">
-        <v>80.80836689320955</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K9" t="n">
-        <v>758.2739518360149</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L9" t="n">
-        <v>923.3460921744155</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M9" t="n">
-        <v>923.3460921744155</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N9" t="n">
-        <v>1600.811677117221</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O9" t="n">
-        <v>1600.811677117221</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P9" t="n">
-        <v>1600.811677117221</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1133.802854344633</v>
+        <v>946.6850896121969</v>
       </c>
       <c r="C10" t="n">
-        <v>961.2411428278582</v>
+        <v>774.1233780954218</v>
       </c>
       <c r="D10" t="n">
-        <v>795.3631500293809</v>
+        <v>608.2453852969445</v>
       </c>
       <c r="E10" t="n">
-        <v>625.6051462801182</v>
+        <v>438.4873815476818</v>
       </c>
       <c r="F10" t="n">
-        <v>448.8980922418745</v>
+        <v>261.7803275094379</v>
       </c>
       <c r="G10" t="n">
-        <v>283.3068172677021</v>
+        <v>96.1890525352656</v>
       </c>
       <c r="H10" t="n">
-        <v>143.4046429580766</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R10" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S10" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="T10" t="n">
-        <v>2425.524857214007</v>
+        <v>2448.730046973836</v>
       </c>
       <c r="U10" t="n">
-        <v>2357.414810959378</v>
+        <v>2170.297046226941</v>
       </c>
       <c r="V10" t="n">
-        <v>2070.459302829808</v>
+        <v>1883.341538097372</v>
       </c>
       <c r="W10" t="n">
-        <v>1798.4328984161</v>
+        <v>1611.315133683663</v>
       </c>
       <c r="X10" t="n">
-        <v>1553.041143749512</v>
+        <v>1365.923379017076</v>
       </c>
       <c r="Y10" t="n">
-        <v>1325.62147306362</v>
+        <v>1138.503708331184</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1317.784699541985</v>
+        <v>1632.671873215309</v>
       </c>
       <c r="C11" t="n">
-        <v>1317.784699541985</v>
+        <v>1632.671873215309</v>
       </c>
       <c r="D11" t="n">
-        <v>1317.784699541985</v>
+        <v>1196.762088389753</v>
       </c>
       <c r="E11" t="n">
-        <v>884.0099547002803</v>
+        <v>1196.762088389753</v>
       </c>
       <c r="F11" t="n">
-        <v>456.1425251094881</v>
+        <v>768.8946587989612</v>
       </c>
       <c r="G11" t="n">
-        <v>54.74469373275195</v>
+        <v>367.4968274222251</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>78.3666728654414</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J11" t="n">
-        <v>54.74469373275195</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K11" t="n">
-        <v>666.6506660403358</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L11" t="n">
-        <v>666.6506660403358</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="M11" t="n">
-        <v>666.6506660403358</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="N11" t="n">
-        <v>666.6506660403358</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O11" t="n">
-        <v>1344.116250983141</v>
+        <v>2353.531449084022</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>3181.841323917419</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>3728.340109876014</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>3813.842300812908</v>
       </c>
       <c r="T11" t="n">
-        <v>2517.167459510636</v>
+        <v>3593.775073685946</v>
       </c>
       <c r="U11" t="n">
-        <v>2504.399567617815</v>
+        <v>3334.552771002963</v>
       </c>
       <c r="V11" t="n">
-        <v>2141.782617551641</v>
+        <v>2971.935820936789</v>
       </c>
       <c r="W11" t="n">
-        <v>1736.927162962675</v>
+        <v>2567.080366347823</v>
       </c>
       <c r="X11" t="n">
-        <v>1317.784699541985</v>
+        <v>2147.937902927134</v>
       </c>
       <c r="Y11" t="n">
-        <v>1317.784699541985</v>
+        <v>1739.651779226787</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>119.6855356763689</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I12" t="n">
-        <v>80.80836689320955</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J12" t="n">
-        <v>405.3666918594219</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K12" t="n">
-        <v>405.3666918594219</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L12" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M12" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N12" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O12" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P12" t="n">
-        <v>1060.072738485145</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1133.802854344633</v>
+        <v>928.4459205695127</v>
       </c>
       <c r="C13" t="n">
-        <v>961.2411428278582</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D13" t="n">
-        <v>795.3631500293809</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E13" t="n">
-        <v>625.6051462801182</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F13" t="n">
-        <v>448.8980922418745</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G13" t="n">
-        <v>283.3068172677021</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="H13" t="n">
-        <v>143.4046429580766</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.404303635552</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.524857214007</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U13" t="n">
-        <v>2147.091856467112</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V13" t="n">
-        <v>1860.136348337543</v>
+        <v>1865.102369054688</v>
       </c>
       <c r="W13" t="n">
-        <v>1588.109943923834</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X13" t="n">
-        <v>1553.041143749512</v>
+        <v>1347.684209974392</v>
       </c>
       <c r="Y13" t="n">
-        <v>1325.62147306362</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>884.0099547002803</v>
+        <v>1313.352208741879</v>
       </c>
       <c r="C14" t="n">
-        <v>884.0099547002803</v>
+        <v>875.2097359253025</v>
       </c>
       <c r="D14" t="n">
-        <v>884.0099547002803</v>
+        <v>439.299951099747</v>
       </c>
       <c r="E14" t="n">
-        <v>884.0099547002803</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="F14" t="n">
-        <v>456.1425251094881</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J14" t="n">
-        <v>54.74469373275195</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K14" t="n">
-        <v>732.2102786755574</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L14" t="n">
-        <v>1409.675863618363</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="M14" t="n">
-        <v>1409.675863618363</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="N14" t="n">
-        <v>1409.675863618363</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O14" t="n">
-        <v>2087.141448561168</v>
+        <v>2353.531449084022</v>
       </c>
       <c r="P14" t="n">
-        <v>2737.234686637598</v>
+        <v>3181.841323917419</v>
       </c>
       <c r="Q14" t="n">
-        <v>2737.234686637598</v>
+        <v>3728.340109876014</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>3813.842300812908</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>3593.775073685946</v>
       </c>
       <c r="U14" t="n">
-        <v>2500.355062372398</v>
+        <v>3334.552771002963</v>
       </c>
       <c r="V14" t="n">
-        <v>2137.738112306224</v>
+        <v>2971.935820936789</v>
       </c>
       <c r="W14" t="n">
-        <v>2137.738112306224</v>
+        <v>2567.080366347823</v>
       </c>
       <c r="X14" t="n">
-        <v>1718.595648885535</v>
+        <v>2147.937902927134</v>
       </c>
       <c r="Y14" t="n">
-        <v>1310.309525185188</v>
+        <v>1739.651779226787</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>119.6855356763689</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I15" t="n">
-        <v>80.80836689320955</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J15" t="n">
-        <v>405.3666918594219</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="K15" t="n">
-        <v>1060.072738485145</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="L15" t="n">
-        <v>1060.072738485145</v>
+        <v>1032.492932303685</v>
       </c>
       <c r="M15" t="n">
-        <v>1060.072738485145</v>
+        <v>1032.492932303685</v>
       </c>
       <c r="N15" t="n">
-        <v>1060.072738485145</v>
+        <v>1032.492932303685</v>
       </c>
       <c r="O15" t="n">
-        <v>1060.072738485145</v>
+        <v>1032.492932303685</v>
       </c>
       <c r="P15" t="n">
-        <v>1060.072738485145</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>742.8207098557364</v>
+        <v>766.0258996155653</v>
       </c>
       <c r="C16" t="n">
-        <v>570.2589983389613</v>
+        <v>593.4641880987903</v>
       </c>
       <c r="D16" t="n">
-        <v>404.381005540484</v>
+        <v>427.586195300313</v>
       </c>
       <c r="E16" t="n">
-        <v>234.6230017912213</v>
+        <v>257.8281915510502</v>
       </c>
       <c r="F16" t="n">
-        <v>220.3359687069243</v>
+        <v>81.12113751280643</v>
       </c>
       <c r="G16" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R16" t="n">
-        <v>2649.986482340924</v>
+        <v>2673.191672100753</v>
       </c>
       <c r="S16" t="n">
-        <v>2490.74511363892</v>
+        <v>2513.950303398749</v>
       </c>
       <c r="T16" t="n">
-        <v>2244.865667217376</v>
+        <v>2268.070856977205</v>
       </c>
       <c r="U16" t="n">
-        <v>1966.432666470481</v>
+        <v>1989.63785623031</v>
       </c>
       <c r="V16" t="n">
-        <v>1679.477158340911</v>
+        <v>1702.68234810074</v>
       </c>
       <c r="W16" t="n">
-        <v>1407.450753927203</v>
+        <v>1430.655943687032</v>
       </c>
       <c r="X16" t="n">
-        <v>1162.058999260615</v>
+        <v>1185.264189020444</v>
       </c>
       <c r="Y16" t="n">
-        <v>934.6393285747235</v>
+        <v>957.8445183345525</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5522,43 +5524,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5759,43 +5761,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5834,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3184.458419759167</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>3011.896708242392</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>2846.018715443915</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>2676.260711694652</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>2499.553657656408</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>4932.38282354235</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>4686.503377120805</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U22" t="n">
-        <v>4408.070376373911</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V22" t="n">
-        <v>4121.114868244342</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>3849.088463830633</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>3603.696709164046</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>3376.277038478154</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6071,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>1141.396843814754</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>407.7542895545774</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,19 +6466,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,22 +6703,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.913654892426</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q32" t="n">
         <v>4943.887948785924</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3575.440564248063</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>3402.878852731288</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>3237.000859932811</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>3067.242856183548</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>2890.535802145304</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>2724.944527171132</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>4932.38282354235</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>4932.38282354235</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>4799.052520862807</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>4512.097012733238</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>4240.070608319529</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>3994.678853652942</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y34" t="n">
-        <v>3767.25918296705</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,52 +6937,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3137.402081918264</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>4117.581748488571</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4945.891623321967</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4945.891623321967</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716164</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731391</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238763</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,25 +7177,25 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>3486.780615022739</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>3314.218903505964</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>3148.340910707486</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>2978.582906958224</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910045</v>
+        <v>2801.87585291998</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>2636.284577945808</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>4988.825572384377</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>4710.392571637482</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>4423.437063507913</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>4151.410659094205</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>3906.018904427618</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>3678.599233741726</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2174.293283011491</v>
+        <v>2215.042146943947</v>
       </c>
       <c r="C41" t="n">
-        <v>1736.150810194914</v>
+        <v>1776.89967412737</v>
       </c>
       <c r="D41" t="n">
-        <v>1300.241025369358</v>
+        <v>1340.989889301815</v>
       </c>
       <c r="E41" t="n">
-        <v>866.4662805276535</v>
+        <v>907.2151444601097</v>
       </c>
       <c r="F41" t="n">
-        <v>438.5988509368612</v>
+        <v>479.3477148693175</v>
       </c>
       <c r="G41" t="n">
-        <v>343.8748482895357</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J41" t="n">
-        <v>489.9993811856698</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K41" t="n">
-        <v>835.8047307933927</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L41" t="n">
-        <v>835.8047307933927</v>
+        <v>1558.055705616385</v>
       </c>
       <c r="M41" t="n">
-        <v>1513.270315736198</v>
+        <v>1558.055705616385</v>
       </c>
       <c r="N41" t="n">
-        <v>1513.270315736198</v>
+        <v>1558.055705616385</v>
       </c>
       <c r="O41" t="n">
-        <v>2190.735900679003</v>
+        <v>2522.68551383708</v>
       </c>
       <c r="P41" t="n">
-        <v>2190.735900679003</v>
+        <v>3350.995388670476</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S41" t="n">
-        <v>2653.582812821435</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="T41" t="n">
-        <v>2433.515585694473</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="U41" t="n">
-        <v>2174.293283011491</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="V41" t="n">
-        <v>2174.293283011491</v>
+        <v>3873.625759138858</v>
       </c>
       <c r="W41" t="n">
-        <v>2174.293283011491</v>
+        <v>3468.770304549891</v>
       </c>
       <c r="X41" t="n">
-        <v>2174.293283011491</v>
+        <v>3049.627841129201</v>
       </c>
       <c r="Y41" t="n">
-        <v>2174.293283011491</v>
+        <v>2641.341717428855</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>2740.426158141555</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>2633.969696978197</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>2538.87940812475</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>2444.758993451704</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>2361.375155067866</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>2275.99006533405</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>2234.254413150262</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>2260.31808631072</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>2584.876411276932</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902655</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902655</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902655</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902655</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902655</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>3239.582457902655</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>3780.321396534731</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>3834.038737077454</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>3703.860093408055</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>3527.523546408024</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>3328.406028470023</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>3143.083274203217</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>2988.215838442097</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>2861.730059221318</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>764.2385311503645</v>
+        <v>787.4437209101934</v>
       </c>
       <c r="C43" t="n">
-        <v>591.6768196335894</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D43" t="n">
-        <v>425.7988268351121</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E43" t="n">
-        <v>256.0408230858494</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F43" t="n">
-        <v>79.33376904760556</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G43" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="H43" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S43" t="n">
-        <v>2512.162934933549</v>
+        <v>2535.368124693377</v>
       </c>
       <c r="T43" t="n">
-        <v>2266.283488512004</v>
+        <v>2289.488678271833</v>
       </c>
       <c r="U43" t="n">
-        <v>1987.850487765109</v>
+        <v>2011.055677524938</v>
       </c>
       <c r="V43" t="n">
-        <v>1700.894979635539</v>
+        <v>1724.100169395368</v>
       </c>
       <c r="W43" t="n">
-        <v>1428.868575221831</v>
+        <v>1452.07376498166</v>
       </c>
       <c r="X43" t="n">
-        <v>1183.476820555243</v>
+        <v>1206.682010315072</v>
       </c>
       <c r="Y43" t="n">
-        <v>956.0571498693516</v>
+        <v>979.2623396291806</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1790.439125807381</v>
+        <v>2215.458936316807</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.296652990805</v>
+        <v>1777.31646350023</v>
       </c>
       <c r="D44" t="n">
-        <v>916.3868681652491</v>
+        <v>1341.406678674675</v>
       </c>
       <c r="E44" t="n">
-        <v>482.6121233235442</v>
+        <v>907.6319338329697</v>
       </c>
       <c r="F44" t="n">
-        <v>54.74469373275195</v>
+        <v>479.7645042421775</v>
       </c>
       <c r="G44" t="n">
-        <v>54.74469373275195</v>
+        <v>78.3666728654414</v>
       </c>
       <c r="H44" t="n">
-        <v>54.74469373275195</v>
+        <v>78.3666728654414</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K44" t="n">
-        <v>54.74469373275195</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L44" t="n">
-        <v>704.837931809182</v>
+        <v>1558.055705616385</v>
       </c>
       <c r="M44" t="n">
-        <v>1382.303516751987</v>
+        <v>1558.055705616385</v>
       </c>
       <c r="N44" t="n">
-        <v>2059.769101694793</v>
+        <v>1558.055705616385</v>
       </c>
       <c r="O44" t="n">
-        <v>2737.234686637598</v>
+        <v>2522.68551383708</v>
       </c>
       <c r="P44" t="n">
-        <v>2737.234686637598</v>
+        <v>3350.995388670476</v>
       </c>
       <c r="Q44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="V44" t="n">
-        <v>2737.234686637598</v>
+        <v>3874.042548511718</v>
       </c>
       <c r="W44" t="n">
-        <v>2737.234686637598</v>
+        <v>3469.187093922751</v>
       </c>
       <c r="X44" t="n">
-        <v>2625.024819992636</v>
+        <v>3050.044630502061</v>
       </c>
       <c r="Y44" t="n">
-        <v>2216.738696292289</v>
+        <v>2641.758506801715</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1580.166670150082</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C45" t="n">
-        <v>1473.710208986724</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D45" t="n">
-        <v>1378.619920133277</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E45" t="n">
-        <v>1284.499505460231</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F45" t="n">
-        <v>1201.115667076393</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G45" t="n">
-        <v>1115.730577342577</v>
+        <v>119.6855356763689</v>
       </c>
       <c r="H45" t="n">
-        <v>1073.994925158789</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I45" t="n">
-        <v>1100.058598319247</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J45" t="n">
-        <v>1424.616923285459</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K45" t="n">
-        <v>2079.322969911183</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L45" t="n">
-        <v>2079.322969911183</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M45" t="n">
-        <v>2079.322969911183</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N45" t="n">
-        <v>2079.322969911183</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O45" t="n">
-        <v>2079.322969911183</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P45" t="n">
-        <v>2079.322969911183</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q45" t="n">
-        <v>2620.061908543259</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R45" t="n">
-        <v>2737.234686637598</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S45" t="n">
-        <v>2673.779249085981</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T45" t="n">
-        <v>2543.600605416583</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U45" t="n">
-        <v>2367.264058416551</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V45" t="n">
-        <v>2168.14654047855</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W45" t="n">
-        <v>1982.823786211744</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X45" t="n">
-        <v>1827.956350450624</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y45" t="n">
-        <v>1701.470571229845</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1036.264935564073</v>
+        <v>928.4459205695127</v>
       </c>
       <c r="C46" t="n">
-        <v>863.7032240472978</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D46" t="n">
-        <v>795.3631500293809</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E46" t="n">
-        <v>625.6051462801182</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F46" t="n">
-        <v>448.8980922418745</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G46" t="n">
-        <v>283.3068172677021</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="H46" t="n">
-        <v>143.4046429580766</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>77.94988349258141</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>164.5295686572713</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>439.2880232284068</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>857.497904996368</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1316.981772177281</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1759.240575334926</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2178.909824560707</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2526.416718531049</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.404303635552</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.162934933549</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.283488512004</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U46" t="n">
-        <v>1987.850487765109</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V46" t="n">
-        <v>1700.894979635539</v>
+        <v>1865.102369054688</v>
       </c>
       <c r="W46" t="n">
-        <v>1700.894979635539</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X46" t="n">
-        <v>1455.503224968952</v>
+        <v>1347.684209974392</v>
       </c>
       <c r="Y46" t="n">
-        <v>1228.08355428306</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8055,10 +8057,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P3" t="n">
-        <v>449.5305433373007</v>
+        <v>17.17305800913095</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -8216,10 +8218,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>178.4356412673392</v>
+        <v>41.76442218146508</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>212.1232482452051</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593994</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="P8" t="n">
-        <v>349.2983329370936</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,19 +8531,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>684.3086716593995</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>166.7395356953541</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>618.0868407147311</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>41.76442218146508</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,10 +8771,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593996</v>
+        <v>41.76442218146508</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="P14" t="n">
-        <v>656.6598364408383</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>715.8552653209144</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9172,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9717,10 +9719,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9953,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10112,22 +10114,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10349,25 +10351,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10595,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10604,10 +10606,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>168.8387779969844</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,19 +10825,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2706063049995</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>756.3484258820586</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10844,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,22 +11062,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>349.2983329370937</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>212.62711385122</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593994</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>656.6598364408385</v>
+        <v>212.62711385122</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593994</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -22550,22 +22552,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>148.0831971338898</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,13 +22600,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>144.4520236831937</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22705,13 +22707,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>48.17580493063053</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,7 +22761,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>111.4236523045826</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>108.0237531796935</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22832,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>88.12648552275303</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22948,19 +22950,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>26.99333424003476</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>160.7958207444073</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>30.91097173081755</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>335.3610492302004</v>
       </c>
     </row>
     <row r="9">
@@ -23194,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23233,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>208.2197249473423</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>316.1264678286956</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>243.9898666822597</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.2197249473427</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>71.70043046219382</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>22.11925163360513</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23662,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7958207444067</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>143.6516710866794</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>39.52293549722788</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>103.1553467313941</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>114.1599680048248</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25126,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>143.6516710866782</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>144.1344859240869</v>
       </c>
     </row>
     <row r="35">
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>303.6070904421165</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>335.3610492302008</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,13 +25924,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>335.7736707093322</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>303.8632708079701</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>96.5625395927548</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>446915.5024797553</v>
+        <v>440163.5958815878</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>446915.5024797553</v>
+        <v>563537.7074343623</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>446915.5024797553</v>
+        <v>563537.7074343623</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>446915.5024797553</v>
+        <v>563537.7074343624</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>446915.5024797553</v>
+        <v>563537.7074343624</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>685717.1601073869</v>
+        <v>685717.1601073868</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>685717.1601073866</v>
+        <v>685717.1601073868</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>685717.1601073866</v>
+        <v>685717.1601073868</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>685717.1601073866</v>
+        <v>685717.1601073868</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>685717.1601073868</v>
+        <v>685717.1601073866</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>446915.5024797553</v>
+        <v>563537.7074343623</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>446915.5024797553</v>
+        <v>563537.7074343623</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180273.9361289993</v>
+        <v>177550.3949404002</v>
       </c>
       <c r="C2" t="n">
-        <v>180273.9361289992</v>
+        <v>227316.2602608686</v>
       </c>
       <c r="D2" t="n">
-        <v>180273.9361289992</v>
+        <v>227316.2602608686</v>
       </c>
       <c r="E2" t="n">
-        <v>180273.9361289993</v>
+        <v>227316.2602608686</v>
       </c>
       <c r="F2" t="n">
-        <v>180273.9361289993</v>
+        <v>227316.2602608686</v>
       </c>
       <c r="G2" t="n">
         <v>276600.23167211</v>
@@ -26350,10 +26352,10 @@
         <v>276600.23167211</v>
       </c>
       <c r="O2" t="n">
-        <v>180273.9361289992</v>
+        <v>227316.2602608686</v>
       </c>
       <c r="P2" t="n">
-        <v>180273.9361289992</v>
+        <v>227316.2602608686</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>99136.93345537229</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>83290.85735690573</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>78975.51648973269</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26801.84454233229</v>
+        <v>26396.92784106698</v>
       </c>
       <c r="C4" t="n">
-        <v>26801.84454233229</v>
+        <v>33795.76216218257</v>
       </c>
       <c r="D4" t="n">
-        <v>26801.84454233229</v>
+        <v>33795.76216218257</v>
       </c>
       <c r="E4" t="n">
-        <v>26801.8445423323</v>
+        <v>33795.76216218257</v>
       </c>
       <c r="F4" t="n">
-        <v>26801.8445423323</v>
+        <v>33795.76216218257</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="H4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="I4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="J4" t="n">
         <v>41122.95192991271</v>
@@ -26445,19 +26447,19 @@
         <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="O4" t="n">
-        <v>26801.8445423323</v>
+        <v>33795.76216218257</v>
       </c>
       <c r="P4" t="n">
-        <v>26801.8445423323</v>
+        <v>33795.76216218257</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>92869.51145436187</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>92869.51145436187</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436187</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436187</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436187</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>59241.91145436187</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-151089.0506227374</v>
+        <v>-146758.7560464693</v>
       </c>
       <c r="C6" t="n">
-        <v>78238.52434977546</v>
+        <v>1514.053188951861</v>
       </c>
       <c r="D6" t="n">
-        <v>78238.52434977546</v>
+        <v>100650.9866443241</v>
       </c>
       <c r="E6" t="n">
-        <v>111866.1243497755</v>
+        <v>134278.5866443242</v>
       </c>
       <c r="F6" t="n">
-        <v>111866.1243497755</v>
+        <v>134278.5866443241</v>
       </c>
       <c r="G6" t="n">
-        <v>-5034.246662036661</v>
+        <v>74468.18377949903</v>
       </c>
       <c r="H6" t="n">
         <v>157759.0411364047</v>
@@ -26543,10 +26545,10 @@
         <v>157759.0411364047</v>
       </c>
       <c r="J6" t="n">
-        <v>-21286.21695124712</v>
+        <v>-16892.30758130136</v>
       </c>
       <c r="K6" t="n">
-        <v>157759.0411364047</v>
+        <v>78783.52464667213</v>
       </c>
       <c r="L6" t="n">
         <v>157759.0411364047</v>
@@ -26555,13 +26557,13 @@
         <v>157759.0411364048</v>
       </c>
       <c r="N6" t="n">
-        <v>157759.0411364047</v>
+        <v>157759.0411364048</v>
       </c>
       <c r="O6" t="n">
-        <v>111866.1243497754</v>
+        <v>134278.5866443242</v>
       </c>
       <c r="P6" t="n">
-        <v>111866.1243497754</v>
+        <v>134278.5866443241</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572676</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>306.8583370494105</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>303.8869597274777</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>306.8583370494105</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>306.8583370494105</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>303.8869597274777</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,10 +34701,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P3" t="n">
-        <v>449.5305433373007</v>
+        <v>17.17305800913095</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34869,13 +34871,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,10 +34938,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L5" t="n">
-        <v>178.4356412673392</v>
+        <v>41.76442218146508</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>212.1232482452051</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593994</v>
+        <v>974.3735436572674</v>
       </c>
       <c r="P8" t="n">
-        <v>349.2983329370936</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,19 +35251,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>684.3086716593995</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>166.7395356953541</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,22 +35330,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>618.0868407147311</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>41.76442218146508</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35489,10 +35491,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593996</v>
+        <v>41.76442218146508</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="P14" t="n">
-        <v>656.6598364408383</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>715.8552653209144</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,7 +35892,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36200,7 +36202,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,10 +36439,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,7 +36685,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36832,22 +36834,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -37069,25 +37071,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,19 +37317,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>168.8387779969844</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37543,19 +37545,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2706063049995</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>756.3484258820586</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37564,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,22 +37782,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>349.2983329370937</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>212.62711385122</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593994</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>656.6598364408385</v>
+        <v>212.62711385122</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593994</v>
+        <v>974.3735436572676</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>661.3192390158827</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621877.8294317831</v>
+        <v>620189.1249594865</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16799231.59170662</v>
+        <v>16799231.59170661</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2228144.448830836</v>
+        <v>2228144.448830835</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7096046.23848744</v>
+        <v>7096046.238487441</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>283.4674898434101</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>16.95053213471851</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -831,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170431</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -873,7 +873,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -882,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>131.5141848153391</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -898,7 +898,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -913,10 +913,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>129.7400693329387</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>327.288162472856</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,19 +1062,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>141.0670894717354</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1135,10 +1135,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1150,7 +1150,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>190.5052511013565</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>68.84221323314274</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1308,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>18.05677735225735</v>
+        <v>18.05677735225732</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105.9101069513631</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>115.8368406277367</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>183.2898414100932</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>357.7365669310939</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.139541480022771</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>140.4342819615944</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>131.3131589043794</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3252,10 +3252,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.01098805494593</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>122.9742767430585</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3751,10 +3751,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>11.11492461580817</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>23.62973133531088</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>31.24391673888117</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>18.05677735225732</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3988,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>88.22770606468491</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>23.21710985617951</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361651</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1057.146387870691</v>
+        <v>1378.349968643494</v>
       </c>
       <c r="C2" t="n">
-        <v>1057.146387870691</v>
+        <v>940.2074958269177</v>
       </c>
       <c r="D2" t="n">
-        <v>770.8155900490646</v>
+        <v>504.2977110013622</v>
       </c>
       <c r="E2" t="n">
-        <v>770.8155900490646</v>
+        <v>70.52296615965736</v>
       </c>
       <c r="F2" t="n">
-        <v>342.9481604582723</v>
+        <v>70.52296615965736</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M2" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N2" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O2" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V2" t="n">
-        <v>2307.443876365255</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W2" t="n">
-        <v>1902.588421776288</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="X2" t="n">
-        <v>1483.445958355599</v>
+        <v>1804.649539128402</v>
       </c>
       <c r="Y2" t="n">
-        <v>1483.445958355599</v>
+        <v>1804.649539128402</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1699.639650578398</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>77.9902918434814</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>2243.522190013252</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1956.566681883682</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W4" t="n">
-        <v>1684.540277469974</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2066.446618057014</v>
+        <v>2215.042146943947</v>
       </c>
       <c r="C5" t="n">
-        <v>2066.446618057014</v>
+        <v>1776.89967412737</v>
       </c>
       <c r="D5" t="n">
-        <v>1630.536833231458</v>
+        <v>1340.989889301815</v>
       </c>
       <c r="E5" t="n">
-        <v>1196.762088389753</v>
+        <v>907.2151444601097</v>
       </c>
       <c r="F5" t="n">
-        <v>768.8946587989612</v>
+        <v>479.3477148693175</v>
       </c>
       <c r="G5" t="n">
-        <v>367.4968274222251</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H5" t="n">
-        <v>78.3666728654414</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I5" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J5" t="n">
         <v>513.2045709454993</v>
@@ -4582,13 +4582,13 @@
         <v>1388.901640863328</v>
       </c>
       <c r="O5" t="n">
-        <v>2353.531449084022</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="P5" t="n">
-        <v>3181.841323917419</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="Q5" t="n">
-        <v>3728.340109876014</v>
+        <v>3728.340109876015</v>
       </c>
       <c r="R5" t="n">
         <v>3897.494174629071</v>
@@ -4597,22 +4597,22 @@
         <v>3813.842300812908</v>
       </c>
       <c r="T5" t="n">
-        <v>3682.791725729131</v>
+        <v>3593.775073685947</v>
       </c>
       <c r="U5" t="n">
-        <v>3682.791725729131</v>
+        <v>3334.552771002964</v>
       </c>
       <c r="V5" t="n">
-        <v>3320.174775662957</v>
+        <v>2971.93582093679</v>
       </c>
       <c r="W5" t="n">
-        <v>3320.174775662957</v>
+        <v>2641.341717428855</v>
       </c>
       <c r="X5" t="n">
-        <v>2901.032312242268</v>
+        <v>2641.341717428855</v>
       </c>
       <c r="Y5" t="n">
-        <v>2492.746188541922</v>
+        <v>2641.341717428855</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2740.426158141555</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C6" t="n">
-        <v>2633.969696978197</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D6" t="n">
-        <v>2538.87940812475</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E6" t="n">
-        <v>2444.758993451704</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F6" t="n">
-        <v>2361.375155067866</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G6" t="n">
-        <v>2275.99006533405</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H6" t="n">
-        <v>2234.254413150262</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I6" t="n">
-        <v>2260.31808631072</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J6" t="n">
-        <v>2584.876411276932</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K6" t="n">
-        <v>3239.582457902655</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L6" t="n">
-        <v>3239.582457902655</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M6" t="n">
-        <v>3239.582457902655</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N6" t="n">
-        <v>3239.582457902655</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O6" t="n">
-        <v>3239.582457902655</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P6" t="n">
-        <v>3239.582457902655</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q6" t="n">
-        <v>3780.321396534731</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R6" t="n">
-        <v>3897.494174629071</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S6" t="n">
-        <v>3834.038737077454</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T6" t="n">
-        <v>3703.860093408055</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U6" t="n">
-        <v>3527.523546408024</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V6" t="n">
-        <v>3328.406028470023</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W6" t="n">
-        <v>3143.083274203217</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X6" t="n">
-        <v>2988.215838442097</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y6" t="n">
-        <v>2861.730059221318</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>787.4437209101934</v>
+        <v>928.4459205695127</v>
       </c>
       <c r="C7" t="n">
-        <v>614.8820093934183</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D7" t="n">
-        <v>449.004016594941</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E7" t="n">
-        <v>306.5120070275316</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F7" t="n">
-        <v>306.5120070275316</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G7" t="n">
-        <v>306.5120070275316</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H7" t="n">
-        <v>166.6098327179061</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I7" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J7" t="n">
         <v>164.5295686572713</v>
       </c>
       <c r="K7" t="n">
-        <v>439.2880232284068</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L7" t="n">
         <v>857.497904996368</v>
@@ -4752,25 +4752,25 @@
         <v>2694.609493395381</v>
       </c>
       <c r="S7" t="n">
-        <v>2535.368124693377</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T7" t="n">
-        <v>2289.488678271833</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U7" t="n">
-        <v>2011.055677524938</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V7" t="n">
-        <v>1724.100169395368</v>
+        <v>1865.102369054688</v>
       </c>
       <c r="W7" t="n">
-        <v>1452.07376498166</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X7" t="n">
-        <v>1206.682010315072</v>
+        <v>1347.684209974392</v>
       </c>
       <c r="Y7" t="n">
-        <v>979.2623396291806</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2215.042146943947</v>
+        <v>1533.419435868841</v>
       </c>
       <c r="C8" t="n">
-        <v>1776.89967412737</v>
+        <v>1533.419435868841</v>
       </c>
       <c r="D8" t="n">
-        <v>1340.989889301815</v>
+        <v>1533.419435868841</v>
       </c>
       <c r="E8" t="n">
-        <v>907.2151444601097</v>
+        <v>1099.644691027137</v>
       </c>
       <c r="F8" t="n">
-        <v>479.3477148693175</v>
+        <v>671.7772614363444</v>
       </c>
       <c r="G8" t="n">
-        <v>77.94988349258141</v>
+        <v>270.3794300596082</v>
       </c>
       <c r="H8" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I8" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J8" t="n">
-        <v>77.94988349258141</v>
+        <v>513.2045709454993</v>
       </c>
       <c r="K8" t="n">
-        <v>287.9518992553345</v>
+        <v>1347.554862903677</v>
       </c>
       <c r="L8" t="n">
-        <v>1252.581707476029</v>
+        <v>2312.184671124372</v>
       </c>
       <c r="M8" t="n">
-        <v>1252.581707476029</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="N8" t="n">
-        <v>2217.211515696724</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="O8" t="n">
-        <v>3181.841323917419</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="P8" t="n">
-        <v>3181.841323917419</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="Q8" t="n">
-        <v>3728.340109876014</v>
+        <v>3728.340109876015</v>
       </c>
       <c r="R8" t="n">
         <v>3897.494174629071</v>
       </c>
       <c r="S8" t="n">
-        <v>3897.494174629071</v>
+        <v>3813.842300812908</v>
       </c>
       <c r="T8" t="n">
-        <v>3897.494174629071</v>
+        <v>3813.842300812908</v>
       </c>
       <c r="U8" t="n">
-        <v>3897.494174629071</v>
+        <v>3554.619998129925</v>
       </c>
       <c r="V8" t="n">
-        <v>3534.877224562897</v>
+        <v>3192.003048063752</v>
       </c>
       <c r="W8" t="n">
-        <v>3130.021769973931</v>
+        <v>2787.147593474785</v>
       </c>
       <c r="X8" t="n">
-        <v>2710.879306553241</v>
+        <v>2368.005130054096</v>
       </c>
       <c r="Y8" t="n">
-        <v>2641.341717428855</v>
+        <v>1959.719006353749</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>205.0706254101851</v>
       </c>
       <c r="G9" t="n">
-        <v>119.6855356763689</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H9" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I9" t="n">
         <v>104.013556653039</v>
@@ -4956,16 +4956,16 @@
         <v>96.1890525352656</v>
       </c>
       <c r="H10" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I10" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J10" t="n">
         <v>164.5295686572713</v>
       </c>
       <c r="K10" t="n">
-        <v>439.2880232284068</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L10" t="n">
         <v>857.497904996368</v>
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1632.671873215309</v>
+        <v>1313.35220874188</v>
       </c>
       <c r="C11" t="n">
-        <v>1632.671873215309</v>
+        <v>1196.345299016893</v>
       </c>
       <c r="D11" t="n">
-        <v>1196.762088389753</v>
+        <v>1196.345299016893</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.762088389753</v>
+        <v>1196.345299016893</v>
       </c>
       <c r="F11" t="n">
-        <v>768.8946587989612</v>
+        <v>768.4778694261013</v>
       </c>
       <c r="G11" t="n">
-        <v>367.4968274222251</v>
+        <v>367.0800380493652</v>
       </c>
       <c r="H11" t="n">
-        <v>78.3666728654414</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I11" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J11" t="n">
-        <v>513.2045709454993</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="K11" t="n">
-        <v>1347.554862903677</v>
+        <v>912.3001754507594</v>
       </c>
       <c r="L11" t="n">
-        <v>1388.901640863328</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="M11" t="n">
-        <v>1388.901640863328</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="N11" t="n">
-        <v>1388.901640863328</v>
+        <v>1558.055705616386</v>
       </c>
       <c r="O11" t="n">
-        <v>2353.531449084022</v>
+        <v>2522.685513837081</v>
       </c>
       <c r="P11" t="n">
-        <v>3181.841323917419</v>
+        <v>3350.995388670477</v>
       </c>
       <c r="Q11" t="n">
-        <v>3728.340109876014</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="R11" t="n">
         <v>3897.494174629071</v>
@@ -5071,22 +5071,22 @@
         <v>3813.842300812908</v>
       </c>
       <c r="T11" t="n">
-        <v>3593.775073685946</v>
+        <v>3593.775073685947</v>
       </c>
       <c r="U11" t="n">
-        <v>3334.552771002963</v>
+        <v>3334.552771002964</v>
       </c>
       <c r="V11" t="n">
-        <v>2971.935820936789</v>
+        <v>2971.93582093679</v>
       </c>
       <c r="W11" t="n">
-        <v>2567.080366347823</v>
+        <v>2567.080366347824</v>
       </c>
       <c r="X11" t="n">
         <v>2147.937902927134</v>
       </c>
       <c r="Y11" t="n">
-        <v>1739.651779226787</v>
+        <v>1739.651779226788</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>205.0706254101851</v>
       </c>
       <c r="G12" t="n">
-        <v>119.6855356763689</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H12" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I12" t="n">
         <v>104.013556653039</v>
@@ -5190,19 +5190,19 @@
         <v>243.5411584667538</v>
       </c>
       <c r="G13" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H13" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I13" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J13" t="n">
         <v>164.5295686572713</v>
       </c>
       <c r="K13" t="n">
-        <v>439.2880232284068</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L13" t="n">
         <v>857.497904996368</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1313.352208741879</v>
+        <v>1638.162399093362</v>
       </c>
       <c r="C14" t="n">
-        <v>875.2097359253025</v>
+        <v>1638.162399093362</v>
       </c>
       <c r="D14" t="n">
-        <v>439.299951099747</v>
+        <v>1202.252614267806</v>
       </c>
       <c r="E14" t="n">
-        <v>77.94988349258141</v>
+        <v>768.4778694261013</v>
       </c>
       <c r="F14" t="n">
-        <v>77.94988349258141</v>
+        <v>768.4778694261013</v>
       </c>
       <c r="G14" t="n">
-        <v>77.94988349258141</v>
+        <v>367.0800380493652</v>
       </c>
       <c r="H14" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I14" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J14" t="n">
         <v>513.2045709454993</v>
@@ -5284,46 +5284,46 @@
         <v>1347.554862903677</v>
       </c>
       <c r="L14" t="n">
-        <v>1388.901640863328</v>
+        <v>2312.184671124372</v>
       </c>
       <c r="M14" t="n">
-        <v>1388.901640863328</v>
+        <v>2312.184671124372</v>
       </c>
       <c r="N14" t="n">
-        <v>1388.901640863328</v>
+        <v>2312.184671124372</v>
       </c>
       <c r="O14" t="n">
-        <v>2353.531449084022</v>
+        <v>2522.685513837081</v>
       </c>
       <c r="P14" t="n">
-        <v>3181.841323917419</v>
+        <v>3350.995388670477</v>
       </c>
       <c r="Q14" t="n">
-        <v>3728.340109876014</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="R14" t="n">
         <v>3897.494174629071</v>
       </c>
       <c r="S14" t="n">
-        <v>3813.842300812908</v>
+        <v>3897.494174629071</v>
       </c>
       <c r="T14" t="n">
-        <v>3593.775073685946</v>
+        <v>3677.42694750211</v>
       </c>
       <c r="U14" t="n">
-        <v>3334.552771002963</v>
+        <v>3418.204644819127</v>
       </c>
       <c r="V14" t="n">
-        <v>2971.935820936789</v>
+        <v>3055.587694752953</v>
       </c>
       <c r="W14" t="n">
-        <v>2567.080366347823</v>
+        <v>2650.732240163987</v>
       </c>
       <c r="X14" t="n">
-        <v>2147.937902927134</v>
+        <v>2231.589776743298</v>
       </c>
       <c r="Y14" t="n">
-        <v>1739.651779226787</v>
+        <v>1823.303653042951</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>205.0706254101851</v>
       </c>
       <c r="G15" t="n">
-        <v>119.6855356763689</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H15" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I15" t="n">
-        <v>77.94988349258141</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J15" t="n">
-        <v>77.94988349258141</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K15" t="n">
-        <v>77.94988349258141</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L15" t="n">
-        <v>1032.492932303685</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M15" t="n">
-        <v>1032.492932303685</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N15" t="n">
-        <v>1032.492932303685</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O15" t="n">
-        <v>1032.492932303685</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P15" t="n">
-        <v>1741.18964497139</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q15" t="n">
-        <v>1741.18964497139</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R15" t="n">
         <v>1741.18964497139</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>766.0258996155653</v>
+        <v>928.4459205695127</v>
       </c>
       <c r="C16" t="n">
-        <v>593.4641880987903</v>
+        <v>755.8842090527377</v>
       </c>
       <c r="D16" t="n">
-        <v>427.586195300313</v>
+        <v>590.0062162542604</v>
       </c>
       <c r="E16" t="n">
-        <v>257.8281915510502</v>
+        <v>420.2482125049976</v>
       </c>
       <c r="F16" t="n">
-        <v>81.12113751280643</v>
+        <v>243.5411584667538</v>
       </c>
       <c r="G16" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H16" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I16" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J16" t="n">
         <v>164.5295686572713</v>
       </c>
       <c r="K16" t="n">
-        <v>439.2880232284068</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L16" t="n">
         <v>857.497904996368</v>
@@ -5460,28 +5460,28 @@
         <v>2694.609493395381</v>
       </c>
       <c r="R16" t="n">
-        <v>2673.191672100753</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.950303398749</v>
+        <v>2676.370324352697</v>
       </c>
       <c r="T16" t="n">
-        <v>2268.070856977205</v>
+        <v>2430.490877931152</v>
       </c>
       <c r="U16" t="n">
-        <v>1989.63785623031</v>
+        <v>2152.057877184257</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.68234810074</v>
+        <v>1865.102369054688</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.655943687032</v>
+        <v>1593.075964640979</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.264189020444</v>
+        <v>1347.684209974392</v>
       </c>
       <c r="Y16" t="n">
-        <v>957.8445183345525</v>
+        <v>1120.2645392885</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5524,43 +5524,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5761,22 +5761,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2259.828259430053</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5998,7 +5998,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.396843814754</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6703,22 +6703,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1680.92946356862</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M32" t="n">
-        <v>2837.977298779171</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
         <v>4943.887948785924</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1454.96690046523</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6949,16 +6949,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,25 +7177,25 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1694.563362934248</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2820.294346370695</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3486.780615022739</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>3314.218903505964</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>3148.340910707486</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>2978.582906958224</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>2801.87585291998</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G40" t="n">
-        <v>2636.284577945808</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>4988.825572384377</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>4710.392571637482</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>4423.437063507913</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>4151.410659094205</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>3906.018904427618</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>3678.599233741726</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2215.042146943947</v>
+        <v>1385.776885976418</v>
       </c>
       <c r="C41" t="n">
-        <v>1776.89967412737</v>
+        <v>947.6344131598418</v>
       </c>
       <c r="D41" t="n">
-        <v>1340.989889301815</v>
+        <v>511.7246283342863</v>
       </c>
       <c r="E41" t="n">
-        <v>907.2151444601097</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="F41" t="n">
-        <v>479.3477148693175</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="G41" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H41" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I41" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J41" t="n">
-        <v>513.2045709454993</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="K41" t="n">
-        <v>1347.554862903677</v>
+        <v>912.3001754507594</v>
       </c>
       <c r="L41" t="n">
-        <v>1558.055705616385</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="M41" t="n">
-        <v>1558.055705616385</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="N41" t="n">
-        <v>1558.055705616385</v>
+        <v>1388.901640863328</v>
       </c>
       <c r="O41" t="n">
-        <v>2522.68551383708</v>
+        <v>2353.531449084023</v>
       </c>
       <c r="P41" t="n">
-        <v>3350.995388670476</v>
+        <v>3181.84132391742</v>
       </c>
       <c r="Q41" t="n">
-        <v>3897.494174629071</v>
+        <v>3728.340109876015</v>
       </c>
       <c r="R41" t="n">
         <v>3897.494174629071</v>
       </c>
       <c r="S41" t="n">
-        <v>3897.494174629071</v>
+        <v>3886.266978047447</v>
       </c>
       <c r="T41" t="n">
-        <v>3897.494174629071</v>
+        <v>3666.199750920486</v>
       </c>
       <c r="U41" t="n">
-        <v>3897.494174629071</v>
+        <v>3406.977448237502</v>
       </c>
       <c r="V41" t="n">
-        <v>3873.625759138858</v>
+        <v>3044.360498171329</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.770304549891</v>
+        <v>2639.505043582362</v>
       </c>
       <c r="X41" t="n">
-        <v>3049.627841129201</v>
+        <v>2220.362580161673</v>
       </c>
       <c r="Y41" t="n">
-        <v>2641.341717428855</v>
+        <v>1812.076456461326</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2740.426158141555</v>
+        <v>584.1216284838742</v>
       </c>
       <c r="C42" t="n">
-        <v>2633.969696978197</v>
+        <v>477.6651673205165</v>
       </c>
       <c r="D42" t="n">
-        <v>2538.87940812475</v>
+        <v>382.5748784670698</v>
       </c>
       <c r="E42" t="n">
-        <v>2444.758993451704</v>
+        <v>288.4544637940235</v>
       </c>
       <c r="F42" t="n">
-        <v>2361.375155067866</v>
+        <v>205.0706254101851</v>
       </c>
       <c r="G42" t="n">
-        <v>2275.99006533405</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H42" t="n">
-        <v>2234.254413150262</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I42" t="n">
-        <v>2260.31808631072</v>
+        <v>104.013556653039</v>
       </c>
       <c r="J42" t="n">
-        <v>2584.876411276932</v>
+        <v>428.5718816192513</v>
       </c>
       <c r="K42" t="n">
-        <v>3239.582457902655</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="L42" t="n">
-        <v>3239.582457902655</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="M42" t="n">
-        <v>3239.582457902655</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="N42" t="n">
-        <v>3239.582457902655</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="O42" t="n">
-        <v>3239.582457902655</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="P42" t="n">
-        <v>3239.582457902655</v>
+        <v>1083.277928244975</v>
       </c>
       <c r="Q42" t="n">
-        <v>3780.321396534731</v>
+        <v>1624.016866877051</v>
       </c>
       <c r="R42" t="n">
-        <v>3897.494174629071</v>
+        <v>1741.18964497139</v>
       </c>
       <c r="S42" t="n">
-        <v>3834.038737077454</v>
+        <v>1677.734207419773</v>
       </c>
       <c r="T42" t="n">
-        <v>3703.860093408055</v>
+        <v>1547.555563750375</v>
       </c>
       <c r="U42" t="n">
-        <v>3527.523546408024</v>
+        <v>1371.219016750343</v>
       </c>
       <c r="V42" t="n">
-        <v>3328.406028470023</v>
+        <v>1172.101498812343</v>
       </c>
       <c r="W42" t="n">
-        <v>3143.083274203217</v>
+        <v>986.7787445455367</v>
       </c>
       <c r="X42" t="n">
-        <v>2988.215838442097</v>
+        <v>831.9113087844166</v>
       </c>
       <c r="Y42" t="n">
-        <v>2861.730059221318</v>
+        <v>705.4255295636374</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>787.4437209101934</v>
+        <v>946.6850896121969</v>
       </c>
       <c r="C43" t="n">
-        <v>755.8842090527377</v>
+        <v>774.1233780954218</v>
       </c>
       <c r="D43" t="n">
-        <v>590.0062162542604</v>
+        <v>608.2453852969445</v>
       </c>
       <c r="E43" t="n">
-        <v>420.2482125049976</v>
+        <v>438.4873815476818</v>
       </c>
       <c r="F43" t="n">
-        <v>243.5411584667538</v>
+        <v>261.7803275094379</v>
       </c>
       <c r="G43" t="n">
-        <v>77.94988349258141</v>
+        <v>96.1890525352656</v>
       </c>
       <c r="H43" t="n">
-        <v>77.94988349258141</v>
+        <v>96.1890525352656</v>
       </c>
       <c r="I43" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J43" t="n">
         <v>164.5295686572713</v>
       </c>
       <c r="K43" t="n">
-        <v>439.2880232284068</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L43" t="n">
         <v>857.497904996368</v>
@@ -7596,25 +7596,25 @@
         <v>2694.609493395381</v>
       </c>
       <c r="S43" t="n">
-        <v>2535.368124693377</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="T43" t="n">
-        <v>2289.488678271833</v>
+        <v>2448.730046973836</v>
       </c>
       <c r="U43" t="n">
-        <v>2011.055677524938</v>
+        <v>2170.297046226941</v>
       </c>
       <c r="V43" t="n">
-        <v>1724.100169395368</v>
+        <v>1883.341538097372</v>
       </c>
       <c r="W43" t="n">
-        <v>1452.07376498166</v>
+        <v>1611.315133683663</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.682010315072</v>
+        <v>1365.923379017076</v>
       </c>
       <c r="Y43" t="n">
-        <v>979.2623396291806</v>
+        <v>1138.503708331184</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2215.458936316807</v>
+        <v>1876.293612367988</v>
       </c>
       <c r="C44" t="n">
-        <v>1777.31646350023</v>
+        <v>1438.151139551411</v>
       </c>
       <c r="D44" t="n">
-        <v>1341.406678674675</v>
+        <v>1002.241354725856</v>
       </c>
       <c r="E44" t="n">
-        <v>907.6319338329697</v>
+        <v>568.4666098841508</v>
       </c>
       <c r="F44" t="n">
-        <v>479.7645042421775</v>
+        <v>479.3477148693175</v>
       </c>
       <c r="G44" t="n">
-        <v>78.3666728654414</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="H44" t="n">
-        <v>78.3666728654414</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I44" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J44" t="n">
-        <v>513.2045709454993</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="K44" t="n">
-        <v>1347.554862903677</v>
+        <v>912.3001754507594</v>
       </c>
       <c r="L44" t="n">
-        <v>1558.055705616385</v>
+        <v>1876.929983671454</v>
       </c>
       <c r="M44" t="n">
-        <v>1558.055705616385</v>
+        <v>1876.929983671454</v>
       </c>
       <c r="N44" t="n">
-        <v>1558.055705616385</v>
+        <v>1876.929983671454</v>
       </c>
       <c r="O44" t="n">
-        <v>2522.68551383708</v>
+        <v>2522.685513837081</v>
       </c>
       <c r="P44" t="n">
-        <v>3350.995388670476</v>
+        <v>3350.995388670477</v>
       </c>
       <c r="Q44" t="n">
         <v>3897.494174629071</v>
@@ -7684,16 +7684,16 @@
         <v>3897.494174629071</v>
       </c>
       <c r="V44" t="n">
-        <v>3874.042548511718</v>
+        <v>3534.877224562898</v>
       </c>
       <c r="W44" t="n">
-        <v>3469.187093922751</v>
+        <v>3130.021769973931</v>
       </c>
       <c r="X44" t="n">
-        <v>3050.044630502061</v>
+        <v>2710.879306553242</v>
       </c>
       <c r="Y44" t="n">
-        <v>2641.758506801715</v>
+        <v>2302.593182852896</v>
       </c>
     </row>
     <row r="45">
@@ -7718,10 +7718,10 @@
         <v>205.0706254101851</v>
       </c>
       <c r="G45" t="n">
-        <v>119.6855356763689</v>
+        <v>119.685535676369</v>
       </c>
       <c r="H45" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="I45" t="n">
         <v>104.013556653039</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>928.4459205695127</v>
+        <v>946.6850896121969</v>
       </c>
       <c r="C46" t="n">
-        <v>755.8842090527377</v>
+        <v>774.1233780954218</v>
       </c>
       <c r="D46" t="n">
-        <v>590.0062162542604</v>
+        <v>608.2453852969445</v>
       </c>
       <c r="E46" t="n">
-        <v>420.2482125049976</v>
+        <v>438.4873815476818</v>
       </c>
       <c r="F46" t="n">
-        <v>243.5411584667538</v>
+        <v>261.7803275094379</v>
       </c>
       <c r="G46" t="n">
-        <v>77.94988349258141</v>
+        <v>166.6098327179061</v>
       </c>
       <c r="H46" t="n">
-        <v>77.94988349258141</v>
+        <v>166.6098327179061</v>
       </c>
       <c r="I46" t="n">
-        <v>77.94988349258141</v>
+        <v>77.94988349258144</v>
       </c>
       <c r="J46" t="n">
         <v>164.5295686572713</v>
       </c>
       <c r="K46" t="n">
-        <v>439.2880232284068</v>
+        <v>439.2880232284069</v>
       </c>
       <c r="L46" t="n">
         <v>857.497904996368</v>
@@ -7830,28 +7830,28 @@
         <v>2694.609493395381</v>
       </c>
       <c r="R46" t="n">
-        <v>2676.370324352697</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="S46" t="n">
-        <v>2676.370324352697</v>
+        <v>2694.609493395381</v>
       </c>
       <c r="T46" t="n">
-        <v>2430.490877931152</v>
+        <v>2448.730046973836</v>
       </c>
       <c r="U46" t="n">
-        <v>2152.057877184257</v>
+        <v>2170.297046226941</v>
       </c>
       <c r="V46" t="n">
-        <v>1865.102369054688</v>
+        <v>1883.341538097372</v>
       </c>
       <c r="W46" t="n">
-        <v>1593.075964640979</v>
+        <v>1611.315133683663</v>
       </c>
       <c r="X46" t="n">
-        <v>1347.684209974392</v>
+        <v>1365.923379017076</v>
       </c>
       <c r="Y46" t="n">
-        <v>1120.2645392885</v>
+        <v>1138.503708331184</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>667.515206607857</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P2" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>17.17305800913095</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8221,7 +8221,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>41.76442218146508</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P5" t="n">
         <v>836.6766412458549</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>212.1232482452051</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>878.4410634273208</v>
       </c>
       <c r="N8" t="n">
-        <v>974.3735436572676</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>974.3735436572674</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>41.76442218146508</v>
+        <v>652.2783132986124</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>41.76442218146508</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>974.3735436572676</v>
+        <v>212.6271138512207</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>715.8552653209144</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9646,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9719,10 +9719,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10351,13 +10351,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10366,10 +10366,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2706063049986</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10609,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,19 +10825,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O38" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10846,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>212.62711385122</v>
+        <v>481.4156216288575</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>212.62711385122</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>974.3735436572676</v>
+        <v>652.2783132986124</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -22549,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>148.0831971338898</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>380.4333209282502</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -22609,7 +22609,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22719,13 +22719,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>111.4236523045826</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,22 +22837,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>88.12648552275303</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>73.51873757022099</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22950,19 +22950,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>26.99333424003476</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23023,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23038,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>95.73360190985935</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>335.3610492302004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>316.1264678286956</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>317.9242074606742</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>238.7467333699655</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>71.70043046219382</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7958207444078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>143.6516710866794</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>39.52293549722788</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>144.1344859240869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25602,7 +25602,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>120.4463752142708</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>71.7004304621932</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>335.3610492302008</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>335.3610492301994</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>335.7736707093322</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>69.7165723808141</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>440163.5958815878</v>
+        <v>440163.5958815877</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>563537.7074343623</v>
+        <v>563537.7074343625</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>563537.7074343623</v>
+        <v>563537.7074343625</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>563537.7074343624</v>
+        <v>563537.7074343625</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>563537.7074343624</v>
+        <v>563537.7074343625</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>685717.1601073866</v>
+        <v>685717.1601073868</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>685717.1601073868</v>
+        <v>685717.1601073866</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>563537.7074343623</v>
+        <v>563537.7074343625</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>563537.7074343623</v>
+        <v>563537.7074343625</v>
       </c>
     </row>
   </sheetData>
@@ -26355,7 +26355,7 @@
         <v>227316.2602608686</v>
       </c>
       <c r="P2" t="n">
-        <v>227316.2602608686</v>
+        <v>227316.2602608687</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
-        <v>99136.93345537229</v>
+        <v>99136.93345537239</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>83290.85735690573</v>
+        <v>83290.85735690568</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
-        <v>78975.51648973269</v>
+        <v>78975.51648973278</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26432,13 +26432,13 @@
         <v>33795.76216218257</v>
       </c>
       <c r="G4" t="n">
+        <v>41122.95192991272</v>
+      </c>
+      <c r="H4" t="n">
+        <v>41122.95192991272</v>
+      </c>
+      <c r="I4" t="n">
         <v>41122.95192991271</v>
-      </c>
-      <c r="H4" t="n">
-        <v>41122.95192991271</v>
-      </c>
-      <c r="I4" t="n">
-        <v>41122.95192991272</v>
       </c>
       <c r="J4" t="n">
         <v>41122.95192991271</v>
@@ -26453,7 +26453,7 @@
         <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
         <v>33795.76216218257</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>92869.51145436187</v>
+        <v>92869.51145436188</v>
       </c>
       <c r="D5" t="n">
-        <v>92869.51145436187</v>
+        <v>92869.51145436188</v>
       </c>
       <c r="E5" t="n">
-        <v>59241.91145436187</v>
+        <v>59241.91145436189</v>
       </c>
       <c r="F5" t="n">
-        <v>59241.91145436187</v>
+        <v>59241.91145436189</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>59241.91145436187</v>
+        <v>59241.91145436189</v>
       </c>
       <c r="P5" t="n">
-        <v>59241.91145436187</v>
+        <v>59241.91145436189</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146758.7560464693</v>
+        <v>-147253.6462750506</v>
       </c>
       <c r="C6" t="n">
-        <v>1514.053188951861</v>
+        <v>1256.143271420292</v>
       </c>
       <c r="D6" t="n">
-        <v>100650.9866443241</v>
+        <v>100393.0767267927</v>
       </c>
       <c r="E6" t="n">
-        <v>134278.5866443242</v>
+        <v>134020.6767267928</v>
       </c>
       <c r="F6" t="n">
-        <v>134278.5866443241</v>
+        <v>134020.6767267927</v>
       </c>
       <c r="G6" t="n">
-        <v>74468.18377949903</v>
+        <v>74444.95944011648</v>
       </c>
       <c r="H6" t="n">
-        <v>157759.0411364047</v>
+        <v>157735.8167970222</v>
       </c>
       <c r="I6" t="n">
-        <v>157759.0411364047</v>
+        <v>157735.8167970222</v>
       </c>
       <c r="J6" t="n">
-        <v>-16892.30758130136</v>
+        <v>-16915.53192068397</v>
       </c>
       <c r="K6" t="n">
-        <v>78783.52464667213</v>
+        <v>78760.30030728932</v>
       </c>
       <c r="L6" t="n">
-        <v>157759.0411364047</v>
+        <v>157735.8167970222</v>
       </c>
       <c r="M6" t="n">
-        <v>157759.0411364048</v>
+        <v>157735.8167970222</v>
       </c>
       <c r="N6" t="n">
-        <v>157759.0411364048</v>
+        <v>157735.8167970222</v>
       </c>
       <c r="O6" t="n">
-        <v>134278.5866443242</v>
+        <v>134020.6767267927</v>
       </c>
       <c r="P6" t="n">
-        <v>134278.5866443241</v>
+        <v>134020.6767267928</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="D4" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="E4" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="F4" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P4" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>306.8583370494105</v>
+        <v>306.8583370494109</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>303.8869597274777</v>
+        <v>303.8869597274775</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>306.8583370494105</v>
+        <v>306.8583370494109</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>306.8583370494105</v>
+        <v>306.8583370494109</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>303.8869597274777</v>
+        <v>303.8869597274775</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>667.515206607857</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P2" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>17.17305800913095</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L5" t="n">
-        <v>41.76442218146508</v>
+        <v>41.76442218146576</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P5" t="n">
         <v>836.6766412458551</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645586</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>212.1232482452051</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L8" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>878.4410634273208</v>
       </c>
       <c r="N8" t="n">
-        <v>974.3735436572676</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>974.3735436572674</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645586</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>41.76442218146508</v>
+        <v>652.2783132986124</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35424,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35652,7 +35652,7 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>41.76442218146508</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35661,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>974.3735436572676</v>
+        <v>212.6271138512207</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>715.8552653209144</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35892,7 +35892,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36366,10 +36366,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36439,10 +36439,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37071,13 +37071,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37086,10 +37086,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37317,7 +37317,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2706063049986</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37329,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37545,19 +37545,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O38" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37566,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>212.62711385122</v>
+        <v>481.4156216288575</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,16 +37794,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>974.3735436572676</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>212.62711385122</v>
+        <v>974.3735436572679</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>974.3735436572676</v>
+        <v>652.2783132986124</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
